--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Master-Barber\NORMALIZACION MODELO ENTIDAD RELACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO}\Documents\GitHub\Master-Barber\NORMALIZACION MODELO ENTIDAD RELACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDDE524-6121-4085-BBE6-358B42A2DCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A212E5-293E-46EE-9F2C-4B5F0456003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
@@ -703,6 +703,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,9 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1081,38 +1081,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="I2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="N2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="R2" s="25" t="s">
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="R2" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="27"/>
-      <c r="Z2" s="25" t="s">
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="28"/>
+      <c r="Z2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="AA2" s="27"/>
+      <c r="AA2" s="28"/>
     </row>
     <row r="3" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -1154,7 +1154,7 @@
       <c r="P3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="R3" s="13" t="s">
@@ -1428,18 +1428,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="I2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1646,26 +1646,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="H3" s="25" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="H3" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="P3" s="25" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="P3" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="Q3" s="27"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -1855,35 +1855,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="P2" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="X2" s="25" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="X2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="Y2" s="27"/>
+      <c r="Y2" s="28"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2257,41 +2257,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="G2" s="25" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
-      <c r="N2" s="25" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="27"/>
-      <c r="V2" s="23" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="28"/>
+      <c r="V2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AC2" s="25" t="s">
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AC2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="AD2" s="27"/>
+      <c r="AD2" s="28"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2723,33 +2723,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="G2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="G2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="N2" s="25" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="N2" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="27"/>
-      <c r="V2" s="25" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="28"/>
+      <c r="V2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="W2" s="27"/>
+      <c r="W2" s="28"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2997,7 +2997,7 @@
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,24 +3015,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="F2" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
-      <c r="N2" s="25" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="O2" s="27"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -3160,14 +3160,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3388,6 +3380,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3398,18 +3398,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3429,6 +3417,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>

--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO}\Documents\GitHub\Master-Barber\NORMALIZACION MODELO ENTIDAD RELACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A212E5-293E-46EE-9F2C-4B5F0456003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE8BB2F-CD18-4652-B24F-E2A7BD5FD789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="162">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>U6</t>
+  </si>
+  <si>
+    <t>Id_TipoServicio</t>
   </si>
 </sst>
 </file>
@@ -2997,7 +3000,7 @@
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3034,7 +3037,7 @@
       </c>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>132</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>135</v>
@@ -3160,6 +3163,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3380,14 +3391,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3398,6 +3401,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3417,18 +3432,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>

--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO}\Documents\GitHub\Master-Barber\NORMALIZACION MODELO ENTIDAD RELACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE8BB2F-CD18-4652-B24F-E2A7BD5FD789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D3D776-CAD0-46C1-86A3-035BE0A05E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="168">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -399,33 +399,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>ID_Admin</t>
-  </si>
-  <si>
-    <t>AD1</t>
-  </si>
-  <si>
-    <t>ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Saya</t>
-  </si>
-  <si>
-    <t>Saya1234@gmail.com</t>
-  </si>
-  <si>
-    <t>Nit</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Contraseña</t>
-  </si>
-  <si>
     <t>Recordatorio</t>
   </si>
   <si>
@@ -517,6 +490,51 @@
   </si>
   <si>
     <t>Id_TipoServicio</t>
+  </si>
+  <si>
+    <t>id_Tipo_Pago</t>
+  </si>
+  <si>
+    <t>TipoPago</t>
+  </si>
+  <si>
+    <t>ID_tipo_pago</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>TP3</t>
+  </si>
+  <si>
+    <t>TP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarjeta de credito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bancolombia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nequi </t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_usuario </t>
   </si>
 </sst>
 </file>
@@ -642,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -695,9 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,9 +767,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -792,7 +807,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -898,7 +913,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1040,7 +1055,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1050,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
   <dimension ref="B2:AA9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,38 +1099,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="I2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="N2" s="24" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="R2" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="28"/>
-      <c r="Z2" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA2" s="28"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="R2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="27"/>
+      <c r="Z2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA2" s="27"/>
     </row>
     <row r="3" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -1134,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>1</v>
@@ -1155,13 +1170,13 @@
         <v>40</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q3" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>23</v>
@@ -1175,17 +1190,17 @@
       <c r="V3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="19" t="s">
         <v>27</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1205,7 +1220,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>76</v>
@@ -1226,13 +1241,13 @@
         <v>41</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Q4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>28</v>
@@ -1246,7 +1261,7 @@
       <c r="V4" s="1">
         <v>3109980085</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="20">
         <v>123456789</v>
       </c>
       <c r="X4" s="1">
@@ -1256,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,7 +1291,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>77</v>
@@ -1297,13 +1312,13 @@
         <v>42</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>29</v>
@@ -1327,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,7 +1362,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>21</v>
@@ -1356,13 +1371,13 @@
         <v>43</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>30</v>
@@ -1386,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1431,18 +1446,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="I2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1621,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C501386-919F-43F1-83F0-4F38E7F1D1A2}">
   <dimension ref="B3:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17:R20"/>
     </sheetView>
   </sheetViews>
@@ -1649,26 +1664,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="H3" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
-      <c r="P3" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="H3" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="P3" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="27"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -1684,10 +1699,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1705,13 +1720,13 @@
         <v>27</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -1724,14 +1739,14 @@
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>18000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>28</v>
@@ -1755,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -1766,16 +1781,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="22">
+        <v>141</v>
+      </c>
+      <c r="E6" s="21">
         <v>50000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>29</v>
@@ -1799,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -1807,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1827,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E8590F-DA86-47A1-B849-50E6B16DDC38}">
-  <dimension ref="B2:Y7"/>
+  <dimension ref="B2:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,40 +1870,46 @@
     <col min="22" max="22" width="14.7109375" customWidth="1"/>
     <col min="24" max="24" width="17.28515625" customWidth="1"/>
     <col min="25" max="25" width="19.28515625" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="26" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="I2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="P2" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="X2" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y2" s="28"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="P2" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="X2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="AA2" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB2" s="27"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
@@ -1899,13 +1920,13 @@
         <v>82</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>95</v>
@@ -1944,16 +1965,22 @@
         <v>27</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>84</v>
       </c>
@@ -1964,13 +1991,13 @@
         <v>78000</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>49</v>
@@ -1991,7 +2018,7 @@
         <v>78000</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>28</v>
@@ -2015,10 +2042,16 @@
         <v>1</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>85</v>
       </c>
@@ -2029,13 +2062,13 @@
         <v>50000</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>50</v>
@@ -2056,7 +2089,7 @@
         <v>50000</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>29</v>
@@ -2080,10 +2113,16 @@
         <v>2</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>86</v>
       </c>
@@ -2094,13 +2133,13 @@
         <v>8000</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>51</v>
@@ -2121,7 +2160,7 @@
         <v>8000</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>30</v>
@@ -2145,10 +2184,16 @@
         <v>3</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>89</v>
       </c>
@@ -2159,13 +2204,13 @@
         <v>15000</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>60</v>
@@ -2186,7 +2231,7 @@
         <v>15000</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>106</v>
@@ -2206,13 +2251,20 @@
       <c r="V7" s="12">
         <v>3</v>
       </c>
+      <c r="AA7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="P2:V2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2230,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
   <dimension ref="B2:AD16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
@@ -2260,41 +2312,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="G2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="N2" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="28"/>
-      <c r="V2" s="24" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="N2" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="27"/>
+      <c r="V2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AC2" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD2" s="28"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AC2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD2" s="27"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2304,7 +2356,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>80</v>
@@ -2328,7 +2380,7 @@
         <v>16</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>23</v>
@@ -2346,7 +2398,7 @@
         <v>27</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>80</v>
@@ -2364,13 +2416,13 @@
         <v>44</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
@@ -2381,7 +2433,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>84</v>
@@ -2405,7 +2457,7 @@
         <v>78000</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>28</v>
@@ -2441,13 +2493,13 @@
         <v>49</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AC4" s="4">
         <v>1</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
@@ -2458,7 +2510,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>85</v>
@@ -2482,7 +2534,7 @@
         <v>50000</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>29</v>
@@ -2518,13 +2570,13 @@
         <v>50</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="AC5" s="4">
         <v>2</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
@@ -2535,7 +2587,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>86</v>
@@ -2559,7 +2611,7 @@
         <v>8000</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>30</v>
@@ -2595,13 +2647,13 @@
         <v>51</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AC6" s="4">
         <v>3</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
@@ -2612,7 +2664,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>89</v>
@@ -2636,7 +2688,7 @@
         <v>15000</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>106</v>
@@ -2672,7 +2724,7 @@
         <v>60</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2700,7 +2752,7 @@
   <dimension ref="B2:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L7"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,33 +2778,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="G2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="N2" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" s="27"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="O2" s="25" t="s">
+        <v>131</v>
+      </c>
       <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="28"/>
-      <c r="V2" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="W2" s="28"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2765,7 +2808,7 @@
         <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>80</v>
@@ -2783,34 +2826,13 @@
         <v>44</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
@@ -2821,13 +2843,13 @@
         <v>45801</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>63</v>
@@ -2842,34 +2864,13 @@
         <v>49</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>10986775432</v>
-      </c>
-      <c r="R4" s="12">
-        <v>3045678902</v>
-      </c>
-      <c r="S4" s="12">
-        <v>12345</v>
-      </c>
-      <c r="T4" s="12">
+        <v>142</v>
+      </c>
+      <c r="O4" s="4">
         <v>1</v>
       </c>
-      <c r="V4" s="4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>145</v>
+      <c r="P4" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
@@ -2880,13 +2881,13 @@
         <v>46227</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>114</v>
@@ -2901,13 +2902,13 @@
         <v>50</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="V5" s="4">
         <v>2</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
@@ -2918,13 +2919,13 @@
         <v>46623</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>90</v>
@@ -2939,13 +2940,13 @@
         <v>51</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="V6" s="4">
         <v>3</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
@@ -2956,13 +2957,13 @@
         <v>47020</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>98</v>
@@ -2977,20 +2978,16 @@
         <v>60</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1" xr:uid="{65BDD4A5-6B86-4719-8A81-168C1A65AEE4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2999,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ADBC9-506E-40DF-8C0D-E4AEB9E67330}">
   <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,43 +3015,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="N2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" s="28"/>
+      <c r="B2" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="F2" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="N2" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
@@ -3063,21 +3060,21 @@
         <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
@@ -3101,7 +3098,7 @@
         <v>38</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>36</v>
@@ -3110,12 +3107,12 @@
         <v>19</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C5" s="18">
         <v>2</v>
@@ -3139,7 +3136,7 @@
         <v>38</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>78</v>
@@ -3148,7 +3145,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3163,11 +3160,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3392,22 +3390,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3433,9 +3426,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\NORMALIZACION Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D3D776-CAD0-46C1-86A3-035BE0A05E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C1E2B5-E258-4391-9F00-073BA197CD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="157">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -51,27 +51,15 @@
     <t>ID_TipoServicio</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
     <t>Corte Basico</t>
   </si>
   <si>
     <t>Corte Premium</t>
   </si>
   <si>
-    <t>S3</t>
-  </si>
-  <si>
     <t>TipoServicio</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_Horario </t>
-  </si>
-  <si>
     <t>ID_Barbero</t>
   </si>
   <si>
@@ -90,18 +78,6 @@
     <t>Corte Mas Linea</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>HORARIO</t>
-  </si>
-  <si>
     <t>Nombre_Usuario</t>
   </si>
   <si>
@@ -153,18 +129,6 @@
     <t>ID_Cliente</t>
   </si>
   <si>
-    <t>FECHA_HORA</t>
-  </si>
-  <si>
-    <t>23/05/2024 8:00-10:00</t>
-  </si>
-  <si>
-    <t>24/06/2024 8:00-10:00</t>
-  </si>
-  <si>
-    <t>25/07/2024 8:00-10:00</t>
-  </si>
-  <si>
     <t>ID_Producto</t>
   </si>
   <si>
@@ -411,21 +375,12 @@
     <t>R2</t>
   </si>
   <si>
-    <t>ID_Horario</t>
-  </si>
-  <si>
     <t>ReservaTurno</t>
   </si>
   <si>
-    <t>Horario</t>
-  </si>
-  <si>
     <t>Fecha_Hora</t>
   </si>
   <si>
-    <t>#######</t>
-  </si>
-  <si>
     <t>Rol</t>
   </si>
   <si>
@@ -483,12 +438,6 @@
     <t>U4</t>
   </si>
   <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
     <t>Id_TipoServicio</t>
   </si>
   <si>
@@ -535,6 +484,24 @@
   </si>
   <si>
     <t xml:space="preserve">ID_usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha_Hora </t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>TS3</t>
+  </si>
+  <si>
+    <t>RO1</t>
+  </si>
+  <si>
+    <t>RO2</t>
+  </si>
+  <si>
+    <t>RO3</t>
   </si>
 </sst>
 </file>
@@ -584,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -648,11 +615,24 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -660,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -721,9 +701,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,6 +725,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -767,9 +759,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -807,7 +799,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -913,7 +905,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1055,7 +1047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1063,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
-  <dimension ref="B2:AA9"/>
+  <dimension ref="B2:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,6 +1083,7 @@
     <col min="21" max="21" width="24.42578125" customWidth="1"/>
     <col min="22" max="22" width="17.28515625" customWidth="1"/>
     <col min="23" max="23" width="14.85546875" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" customWidth="1"/>
     <col min="25" max="25" width="19.28515625" customWidth="1"/>
     <col min="26" max="26" width="24.140625" customWidth="1"/>
     <col min="27" max="27" width="26.140625" customWidth="1"/>
@@ -1098,41 +1091,36 @@
     <col min="29" max="29" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="I2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="N2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="R2" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="I2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="O2" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="27"/>
-      <c r="Z2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA2" s="27"/>
-    </row>
-    <row r="3" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="X2" s="26"/>
+    </row>
+    <row r="3" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -1149,277 +1137,229 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="P3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>138</v>
+      <c r="R3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="30">
+        <v>45430.868402777778</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7">
         <v>18000</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>149</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="7">
+      <c r="O4" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="7">
         <v>1098556772</v>
       </c>
-      <c r="V4" s="1">
+      <c r="S4" s="1">
         <v>3109980085</v>
       </c>
-      <c r="W4" s="20">
+      <c r="T4" s="20">
         <v>123456789</v>
       </c>
-      <c r="X4" s="1">
+      <c r="U4" s="1">
         <v>3</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="W4" s="4">
         <v>1</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="30">
+        <v>45820.646064814813</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7">
         <v>22000</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>150</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="7">
+      <c r="O5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="7">
         <v>1028662003</v>
       </c>
-      <c r="V5" s="1">
+      <c r="S5" s="1">
         <v>3142758305</v>
       </c>
-      <c r="W5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" s="1">
+      <c r="T5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="1">
         <v>3</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="W5" s="4">
         <v>2</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>153</v>
+      </c>
+      <c r="D6" s="30">
+        <v>45514.521412037036</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>151</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="7">
+        <v>132</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="7">
         <v>10098977625</v>
       </c>
-      <c r="V6" s="1">
+      <c r="S6" s="1">
         <v>3044495505</v>
       </c>
-      <c r="W6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="T6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="1">
         <v>3</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="W6" s="4">
         <v>3</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="X6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:P2"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T4" r:id="rId1" xr:uid="{6B5B4F14-46AF-47B1-B4F8-5BE8342968CE}"/>
-    <hyperlink ref="T5" r:id="rId2" xr:uid="{456414B6-326B-4422-84EF-4B15C306B71E}"/>
-    <hyperlink ref="T6" r:id="rId3" xr:uid="{6B2B062E-3456-4C8D-8B01-A868D44AE9CC}"/>
+    <hyperlink ref="Q4" r:id="rId1" xr:uid="{6B5B4F14-46AF-47B1-B4F8-5BE8342968CE}"/>
+    <hyperlink ref="Q5" r:id="rId2" xr:uid="{456414B6-326B-4422-84EF-4B15C306B71E}"/>
+    <hyperlink ref="Q6" r:id="rId3" xr:uid="{6B2B062E-3456-4C8D-8B01-A868D44AE9CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1446,138 +1386,138 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="I2" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="23"/>
+      <c r="B2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="I2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E4" s="12">
         <v>20</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1">
         <v>78000</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1">
         <v>50000</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1">
         <v>20000</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1">
         <v>15000</v>
@@ -1585,19 +1525,19 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1">
         <v>32000</v>
@@ -1605,19 +1545,19 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="E9" s="1">
         <v>60</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
@@ -1664,95 +1604,95 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="H3" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="P3" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" s="27"/>
+      <c r="B3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="H3" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="P3" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="21">
         <v>18000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7">
         <v>1098556772</v>
@@ -1770,33 +1710,33 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E6" s="21">
         <v>50000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7">
         <v>1028662003</v>
@@ -1805,7 +1745,7 @@
         <v>3142758305</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N6" s="12">
         <v>3</v>
@@ -1814,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -1822,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E8590F-DA86-47A1-B849-50E6B16DDC38}">
   <dimension ref="B2:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1875,156 +1815,156 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="I2" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="P2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="X2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y2" s="27"/>
-      <c r="AA2" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB2" s="27"/>
+      <c r="B2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="I2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="P2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="X2" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2" s="26"/>
+      <c r="AA2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB2" s="26"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="AB3" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D4" s="14">
         <v>78000</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
         <v>78000</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="S4" s="7">
         <v>1098556772</v>
@@ -2042,60 +1982,60 @@
         <v>1</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2">
         <v>50000</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N5" s="7">
         <v>50000</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="S5" s="7">
         <v>1028662003</v>
@@ -2104,7 +2044,7 @@
         <v>3142758305</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="V5" s="12">
         <v>3</v>
@@ -2113,60 +2053,60 @@
         <v>2</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D6" s="14">
         <v>8000</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="L6" s="7">
         <v>2</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N6" s="7">
         <v>8000</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="S6" s="7">
         <v>10098977625</v>
@@ -2175,7 +2115,7 @@
         <v>3044495505</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="V6" s="12">
         <v>3</v>
@@ -2184,60 +2124,60 @@
         <v>3</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D7" s="14">
         <v>15000</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
         <v>15000</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="S7" s="7">
         <v>10098977625</v>
@@ -2246,16 +2186,16 @@
         <v>3044495505</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="V7" s="12">
         <v>3</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2282,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
   <dimension ref="B2:AD16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,158 +2252,158 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="G2" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
-      <c r="N2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="27"/>
-      <c r="V2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AC2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD2" s="27"/>
+      <c r="B2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="N2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="26"/>
+      <c r="V2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AC2" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="26"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L4" s="7">
         <v>78000</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="7">
         <v>1098556772</v>
@@ -2474,73 +2414,73 @@
       <c r="S4" s="1">
         <v>123456789</v>
       </c>
-      <c r="T4" s="1">
-        <v>3</v>
+      <c r="T4" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="X4" s="14">
         <v>78000</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7">
         <v>50000</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7">
         <v>1028662003</v>
@@ -2549,75 +2489,75 @@
         <v>3142758305</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="12">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="X5" s="2">
         <v>50000</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>2</v>
+        <v>128</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J6" s="7">
         <v>2</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="L6" s="7">
         <v>8000</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7">
         <v>10098977625</v>
@@ -2626,75 +2566,75 @@
         <v>3044495505</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="12">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="X6" s="14">
         <v>8000</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>3</v>
+        <v>129</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7">
         <v>15000</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7">
         <v>10098977625</v>
@@ -2703,28 +2643,28 @@
         <v>3044495505</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="T7" s="12">
-        <v>3</v>
+        <v>93</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="X7" s="14">
         <v>15000</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2749,10 +2689,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73743B71-12CC-4A65-A712-8C586D2A7F83}">
-  <dimension ref="B2:W7"/>
+  <dimension ref="B2:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,208 +2717,208 @@
     <col min="23" max="23" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="G2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="O2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="P2" s="27"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="O2" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C4" s="15">
         <v>45801</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I4" s="14">
         <v>78000</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="O4" s="4">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C5" s="15">
         <v>46227</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I5" s="2">
         <v>50000</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="V5" s="4">
+        <v>128</v>
+      </c>
+      <c r="O5" s="4">
         <v>2</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="P5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C6" s="15">
         <v>46623</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I6" s="14">
         <v>8000</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="V6" s="4">
+        <v>129</v>
+      </c>
+      <c r="O6" s="4">
         <v>3</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="P6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C7" s="15">
         <v>47020</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I7" s="14">
         <v>15000</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2994,165 +2934,160 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ADBC9-506E-40DF-8C0D-E4AEB9E67330}">
-  <dimension ref="B2:O5"/>
+  <dimension ref="B2:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="F2" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
-      <c r="N2" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>126</v>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="16">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>19</v>
+      <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="30">
+        <v>45430.868402777778</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C5" s="18">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="30">
+        <v>45820.646064814813</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>130</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="30">
+        <v>45514.521412037036</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="N2:O2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3160,15 +3095,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3389,6 +3315,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3398,14 +3333,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3425,6 +3352,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
   <ds:schemaRefs>

--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\NORMALIZACION Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C1E2B5-E258-4391-9F00-073BA197CD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A8F6E4-6321-4436-A976-94A66EDAD678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="10380" yWindow="0" windowWidth="10080" windowHeight="10950" firstSheet="2" activeTab="2" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="150">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -60,9 +60,6 @@
     <t>TipoServicio</t>
   </si>
   <si>
-    <t>ID_Barbero</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nombre </t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>098t47ty784</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t>TS2</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Compra</t>
   </si>
   <si>
@@ -249,24 +240,12 @@
     <t>Tipo_Pago</t>
   </si>
   <si>
-    <t>CO1</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>CO3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gorra Morada </t>
   </si>
   <si>
     <t>Nequi</t>
   </si>
   <si>
-    <t>CO4</t>
-  </si>
-  <si>
     <t>Expansion 8</t>
   </si>
   <si>
@@ -375,12 +354,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>ReservaTurno</t>
-  </si>
-  <si>
-    <t>Fecha_Hora</t>
-  </si>
-  <si>
     <t>Rol</t>
   </si>
   <si>
@@ -423,12 +396,6 @@
     <t>U3</t>
   </si>
   <si>
-    <t xml:space="preserve"> U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> U3</t>
   </si>
   <si>
@@ -438,9 +405,6 @@
     <t>U4</t>
   </si>
   <si>
-    <t>Id_TipoServicio</t>
-  </si>
-  <si>
     <t>id_Tipo_Pago</t>
   </si>
   <si>
@@ -492,9 +456,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>TS3</t>
-  </si>
-  <si>
     <t>RO1</t>
   </si>
   <si>
@@ -502,6 +463,24 @@
   </si>
   <si>
     <t>RO3</t>
+  </si>
+  <si>
+    <t>RT1</t>
+  </si>
+  <si>
+    <t>RT2</t>
+  </si>
+  <si>
+    <t>RT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensaje </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuerda que tienes una turno reservado </t>
+  </si>
+  <si>
+    <t>24/08/2027  22:20:00 p. m.</t>
   </si>
 </sst>
 </file>
@@ -640,7 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -660,9 +639,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -701,19 +677,34 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,21 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
   <dimension ref="B2:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,33 +1068,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="O2" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
-      <c r="W2" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2" s="26"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="O2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
+      <c r="W2" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="29"/>
     </row>
     <row r="3" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -1128,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -1137,88 +1113,88 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="P3" s="32" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="19" t="s">
-        <v>19</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="B4" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="30">
-        <v>45430.868402777778</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="D4" s="21">
+        <v>45754.847453703704</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7">
         <v>18000</v>
       </c>
-      <c r="O4" s="34" t="s">
-        <v>127</v>
+      <c r="O4" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="R4" s="7">
         <v>1098556772</v>
@@ -1226,7 +1202,7 @@
       <c r="S4" s="1">
         <v>3109980085</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="19">
         <v>123456789</v>
       </c>
       <c r="U4" s="1">
@@ -1236,48 +1212,48 @@
         <v>1</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>2</v>
+      <c r="B5" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="30">
+        <v>63</v>
+      </c>
+      <c r="D5" s="21">
         <v>45820.646064814813</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>30</v>
+      <c r="E5" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7">
         <v>22000</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="R5" s="7">
         <v>1028662003</v>
@@ -1285,8 +1261,8 @@
       <c r="S5" s="1">
         <v>3142758305</v>
       </c>
-      <c r="T5" s="17" t="s">
-        <v>26</v>
+      <c r="T5" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="U5" s="1">
         <v>3</v>
@@ -1295,36 +1271,36 @@
         <v>2</v>
       </c>
       <c r="X5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="21">
+        <v>45879.521412037036</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="30">
-        <v>45514.521412037036</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="R6" s="7">
         <v>10098977625</v>
@@ -1332,8 +1308,8 @@
       <c r="S6" s="1">
         <v>3044495505</v>
       </c>
-      <c r="T6" s="17" t="s">
-        <v>27</v>
+      <c r="T6" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="U6" s="1">
         <v>3</v>
@@ -1342,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1386,178 +1362,178 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="22"/>
+      <c r="B2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>37</v>
+      <c r="B4" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="12">
+        <v>56</v>
+      </c>
+      <c r="E4" s="11">
         <v>20</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>54</v>
+      <c r="F4" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="G4" s="1">
         <v>78000</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>54</v>
+      <c r="I4" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>38</v>
+      <c r="B5" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>55</v>
+      <c r="F5" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G5" s="1">
         <v>50000</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>55</v>
+      <c r="I5" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>39</v>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>55</v>
+      <c r="F6" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G6" s="1">
         <v>20000</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>56</v>
+      <c r="I6" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>48</v>
+      <c r="B7" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>56</v>
+      <c r="F7" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="G7" s="1">
         <v>15000</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>49</v>
+      <c r="B8" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>56</v>
+      <c r="F8" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="G8" s="1">
         <v>32000</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>50</v>
+      <c r="B9" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1">
         <v>60</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>55</v>
+      <c r="F9" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
@@ -1576,7 +1552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C501386-919F-43F1-83F0-4F38E7F1D1A2}">
   <dimension ref="B3:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17:R20"/>
     </sheetView>
   </sheetViews>
@@ -1604,95 +1580,95 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="H3" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
-      <c r="P3" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q3" s="26"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="H3" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="P3" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>64</v>
+      <c r="B5" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="21">
+        <v>12</v>
+      </c>
+      <c r="E5" s="20">
         <v>18000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K5" s="7">
         <v>1098556772</v>
@@ -1710,33 +1686,33 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>65</v>
+      <c r="B6" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="21">
+        <v>117</v>
+      </c>
+      <c r="E6" s="20">
         <v>50000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="K6" s="7">
         <v>1028662003</v>
@@ -1744,17 +1720,17 @@
       <c r="L6" s="1">
         <v>3142758305</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="12">
+      <c r="M6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="11">
         <v>3</v>
       </c>
       <c r="P6" s="4">
         <v>2</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -1762,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1784,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E8590F-DA86-47A1-B849-50E6B16DDC38}">
   <dimension ref="B2:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,156 +1791,156 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="P2" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="X2" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y2" s="26"/>
-      <c r="AA2" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB2" s="26"/>
+      <c r="B2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="P2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="X2" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="29"/>
+      <c r="AA2" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" s="29"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>83</v>
+        <v>114</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>31</v>
+      <c r="P3" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>138</v>
+        <v>109</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>72</v>
+      <c r="B4" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="14">
+        <v>49</v>
+      </c>
+      <c r="D4" s="13">
         <v>78000</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>127</v>
       </c>
+      <c r="F4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N4" s="7">
         <v>78000</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="S4" s="7">
         <v>1098556772</v>
@@ -1982,60 +1958,60 @@
         <v>1</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>73</v>
+      <c r="B5" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2">
         <v>50000</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="F5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
         <v>50000</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="S5" s="7">
         <v>1028662003</v>
@@ -2043,70 +2019,70 @@
       <c r="T5" s="1">
         <v>3142758305</v>
       </c>
-      <c r="U5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" s="12">
+      <c r="U5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="11">
         <v>3</v>
       </c>
       <c r="X5" s="4">
         <v>2</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="13">
+        <v>8000</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AA5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="14">
-        <v>8000</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L6" s="7">
         <v>2</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N6" s="7">
         <v>8000</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="S6" s="7">
         <v>10098977625</v>
@@ -2114,70 +2090,70 @@
       <c r="T6" s="1">
         <v>3044495505</v>
       </c>
-      <c r="U6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" s="12">
+      <c r="U6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="11">
         <v>3</v>
       </c>
       <c r="X6" s="4">
         <v>3</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>77</v>
+      <c r="B7" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="14">
+        <v>79</v>
+      </c>
+      <c r="D7" s="13">
         <v>15000</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>134</v>
+      <c r="E7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
         <v>15000</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="S7" s="7">
         <v>10098977625</v>
@@ -2185,17 +2161,17 @@
       <c r="T7" s="1">
         <v>3044495505</v>
       </c>
-      <c r="U7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" s="12">
+      <c r="U7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V7" s="11">
         <v>3</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2220,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
-  <dimension ref="B2:AD16"/>
+  <dimension ref="B2:W16"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z7" sqref="U2:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,96 +2207,86 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="22" max="22" width="32.7109375" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" customWidth="1"/>
-    <col min="30" max="30" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="21" max="21" width="32.7109375" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" customWidth="1"/>
+    <col min="29" max="29" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="N2" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26"/>
-      <c r="V2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AC2" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD2" s="26"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="F2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="M2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="29"/>
+      <c r="V2" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="W2" s="29"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>83</v>
+        <v>114</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>123</v>
+      <c r="M3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>15</v>
@@ -2335,353 +2301,247 @@
         <v>18</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="7">
+        <v>78000</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="O4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1098556772</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3109980085</v>
+      </c>
+      <c r="R4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="7">
+        <v>50000</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1028662003</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3142758305</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="7">
+        <v>8000</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="7">
+        <v>10098977625</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3044495505</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="7">
+        <v>15000</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AC3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="7">
-        <v>78000</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>1098556772</v>
-      </c>
-      <c r="R4" s="1">
-        <v>3109980085</v>
-      </c>
-      <c r="S4" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="14">
-        <v>78000</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="O7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="7">
-        <v>50000</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1028662003</v>
-      </c>
-      <c r="R5" s="1">
-        <v>3142758305</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="X5" s="2">
-        <v>50000</v>
-      </c>
-      <c r="Y5" s="12" t="s">
+      <c r="P7" s="7">
+        <v>10098977625</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3044495505</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="Z5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="7">
-        <v>8000</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>10098977625</v>
-      </c>
-      <c r="R6" s="1">
-        <v>3044495505</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" s="14">
-        <v>8000</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="7">
-        <v>15000</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>10098977625</v>
-      </c>
-      <c r="R7" s="1">
-        <v>3044495505</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="X7" s="14">
-        <v>15000</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="16" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="N2:T2"/>
+  <mergeCells count="4">
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="M2:S2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1" xr:uid="{67D4A995-0BAE-4508-88F6-2C7C0253F221}"/>
-    <hyperlink ref="P5" r:id="rId2" xr:uid="{3EDD6798-4441-464A-AED8-7C40EF9AE8B8}"/>
-    <hyperlink ref="P6" r:id="rId3" xr:uid="{E9F1E833-61D4-4645-91DC-9EAF11BFFEF2}"/>
-    <hyperlink ref="P7" r:id="rId4" xr:uid="{FD86A272-56F9-49C1-9B9F-47CADB86462D}"/>
+    <hyperlink ref="O4" r:id="rId1" xr:uid="{67D4A995-0BAE-4508-88F6-2C7C0253F221}"/>
+    <hyperlink ref="O5" r:id="rId2" xr:uid="{3EDD6798-4441-464A-AED8-7C40EF9AE8B8}"/>
+    <hyperlink ref="O6" r:id="rId3" xr:uid="{E9F1E833-61D4-4645-91DC-9EAF11BFFEF2}"/>
+    <hyperlink ref="O7" r:id="rId4" xr:uid="{FD86A272-56F9-49C1-9B9F-47CADB86462D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2691,15 +2551,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73743B71-12CC-4A65-A712-8C586D2A7F83}">
   <dimension ref="B2:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
@@ -2718,207 +2578,207 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="O2" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" s="26"/>
+      <c r="B2" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="O2" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="P3" s="2" t="s">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="14">
+        <v>45801.84039351852</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="13">
+        <v>78000</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="15">
-        <v>45801</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="14">
-        <v>78000</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="O4" s="4">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="15">
-        <v>46227</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>147</v>
+      <c r="B5" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="14">
+        <v>46227.5</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I5" s="2">
         <v>50000</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>128</v>
+      <c r="J5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="O5" s="4">
         <v>2</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="15">
-        <v>46623</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>148</v>
+      <c r="G6" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="14">
+        <v>71</v>
+      </c>
+      <c r="I6" s="13">
         <v>8000</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>129</v>
+      <c r="J6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="O6" s="4">
         <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="14">
         <v>47020</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>149</v>
+      <c r="D7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="14">
+        <v>79</v>
+      </c>
+      <c r="I7" s="13">
         <v>15000</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>134</v>
+      <c r="J7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2936,158 +2796,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ADBC9-506E-40DF-8C0D-E4AEB9E67330}">
   <dimension ref="B2:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="E2" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="25"/>
+      <c r="B2" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="F2" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
+      <c r="K3" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="30">
-        <v>45430.868402777778</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="B4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="21">
+        <v>45754.847453703704</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="18">
-        <v>2</v>
-      </c>
-      <c r="E5" s="16">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="30">
+      <c r="B5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="21">
         <v>45820.646064814813</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>66</v>
+      <c r="I5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="18">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="30">
-        <v>45514.521412037036</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="B6" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="21">
+        <v>45879.521412037036</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3095,6 +2956,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3315,15 +3185,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3333,6 +3194,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3352,14 +3221,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
   <ds:schemaRefs>

--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27705"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\NORMALIZACION Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A8F6E4-6321-4436-A976-94A66EDAD678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EBD940-C5DF-45D0-9A59-58469A793DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="0" windowWidth="10080" windowHeight="10950" firstSheet="2" activeTab="2" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="154">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -63,9 +63,6 @@
     <t xml:space="preserve">Nombre </t>
   </si>
   <si>
-    <t>Decripcion</t>
-  </si>
-  <si>
     <t>Precio</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t xml:space="preserve">Cantidad </t>
   </si>
   <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
     <t>P4</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t>ID_Compra</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
     <t>Precio_Total</t>
   </si>
   <si>
@@ -480,7 +471,28 @@
     <t xml:space="preserve">Recuerda que tienes una turno reservado </t>
   </si>
   <si>
-    <t>24/08/2027  22:20:00 p. m.</t>
+    <t>Decripcion_S</t>
+  </si>
+  <si>
+    <t>Descripcion_P</t>
+  </si>
+  <si>
+    <t>Descripcion_S</t>
+  </si>
+  <si>
+    <t>Descripción_C</t>
+  </si>
+  <si>
+    <t>Decripcion_p</t>
+  </si>
+  <si>
+    <t>Decripcion_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora </t>
   </si>
 </sst>
 </file>
@@ -530,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -614,12 +626,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -716,6 +748,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -735,9 +774,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -775,7 +814,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -881,7 +920,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1023,7 +1062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1033,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
   <dimension ref="B2:X9"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,22 +1107,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="O2" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
@@ -1092,7 +1126,7 @@
       <c r="T2" s="28"/>
       <c r="U2" s="29"/>
       <c r="W2" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X2" s="29"/>
     </row>
@@ -1104,97 +1138,97 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="H3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="22"/>
       <c r="O3" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="18" t="s">
-        <v>18</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="21">
         <v>45754.847453703704</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="34">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>6</v>
+      <c r="H4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7">
-        <v>18000</v>
+        <v>9</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R4" s="7">
         <v>1098556772</v>
@@ -1212,48 +1246,51 @@
         <v>1</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="21">
         <v>45820.646064814813</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="34">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="7">
-        <v>22000</v>
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="7">
+        <v>18000</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R5" s="7">
         <v>1028662003</v>
@@ -1262,7 +1299,7 @@
         <v>3142758305</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U5" s="1">
         <v>3</v>
@@ -1271,36 +1308,51 @@
         <v>2</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="21">
         <v>45879.521412037036</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="34">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>121</v>
+      <c r="H6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="7">
+        <v>22000</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R6" s="7">
         <v>10098977625</v>
@@ -1309,7 +1361,7 @@
         <v>3044495505</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U6" s="1">
         <v>3</v>
@@ -1318,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1326,10 +1378,10 @@
     <row r="9" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="O2:U2"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1345,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1415,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -1371,129 +1423,129 @@
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="I2" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="11">
         <v>20</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1">
         <v>78000</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1">
         <v>50000</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1">
         <v>20000</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1">
         <v>15000</v>
@@ -1501,19 +1553,19 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1">
         <v>32000</v>
@@ -1521,19 +1573,19 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1">
         <v>60</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
@@ -1552,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C501386-919F-43F1-83F0-4F38E7F1D1A2}">
   <dimension ref="B3:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:R20"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1640,7 @@
       <c r="E3" s="32"/>
       <c r="F3" s="33"/>
       <c r="H3" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -1597,7 +1649,7 @@
       <c r="M3" s="28"/>
       <c r="N3" s="29"/>
       <c r="P3" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="29"/>
     </row>
@@ -1606,69 +1658,69 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="20">
         <v>18000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7">
         <v>1098556772</v>
@@ -1686,33 +1738,33 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E6" s="20">
         <v>50000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7">
         <v>1028662003</v>
@@ -1721,7 +1773,7 @@
         <v>3142758305</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" s="11">
         <v>3</v>
@@ -1730,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -1738,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1760,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E8590F-DA86-47A1-B849-50E6B16DDC38}">
   <dimension ref="B2:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1844,7 @@
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -1800,7 +1852,7 @@
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="I2" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -1808,7 +1860,7 @@
       <c r="M2" s="28"/>
       <c r="N2" s="29"/>
       <c r="P2" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
@@ -1817,130 +1869,130 @@
       <c r="U2" s="28"/>
       <c r="V2" s="29"/>
       <c r="X2" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y2" s="29"/>
       <c r="AA2" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AB2" s="29"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="P3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="13">
         <v>78000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
         <v>78000</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S4" s="7">
         <v>1098556772</v>
@@ -1958,60 +2010,60 @@
         <v>1</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2">
         <v>50000</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
         <v>50000</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S5" s="7">
         <v>1028662003</v>
@@ -2020,7 +2072,7 @@
         <v>3142758305</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V5" s="11">
         <v>3</v>
@@ -2029,60 +2081,60 @@
         <v>2</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="13">
         <v>8000</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L6" s="7">
         <v>2</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N6" s="7">
         <v>8000</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S6" s="7">
         <v>10098977625</v>
@@ -2091,7 +2143,7 @@
         <v>3044495505</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V6" s="11">
         <v>3</v>
@@ -2100,60 +2152,60 @@
         <v>3</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="13">
         <v>15000</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
         <v>15000</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S7" s="7">
         <v>10098977625</v>
@@ -2162,16 +2214,16 @@
         <v>3044495505</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V7" s="11">
         <v>3</v>
       </c>
       <c r="AA7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2198,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
   <dimension ref="B2:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z7" sqref="U2:Z7"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,12 +2280,12 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="F2" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -2241,7 +2293,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="29"/>
       <c r="M2" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
@@ -2250,102 +2302,102 @@
       <c r="R2" s="28"/>
       <c r="S2" s="29"/>
       <c r="V2" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W2" s="29"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="M3" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="S3" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K4" s="7">
         <v>78000</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="7">
         <v>1098556772</v>
@@ -2357,51 +2409,51 @@
         <v>123456789</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5" s="7">
         <v>50000</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7">
         <v>1028662003</v>
@@ -2410,54 +2462,54 @@
         <v>3142758305</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6" s="7">
         <v>8000</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7">
         <v>10098977625</v>
@@ -2466,54 +2518,54 @@
         <v>3044495505</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K7" s="7">
         <v>15000</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7">
         <v>10098977625</v>
@@ -2522,10 +2574,10 @@
         <v>3044495505</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2552,7 +2604,7 @@
   <dimension ref="B2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,13 +2631,13 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="G2" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -2593,192 +2645,192 @@
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="O2" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P2" s="29"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="14">
-        <v>45801.84039351852</v>
+        <v>45801</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I4" s="13">
         <v>78000</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O4" s="4">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="14">
-        <v>46227.5</v>
+        <v>46227</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2">
         <v>50000</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O5" s="4">
         <v>2</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>149</v>
+        <v>97</v>
+      </c>
+      <c r="C6" s="14">
+        <v>46623</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I6" s="13">
         <v>8000</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O6" s="4">
         <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="14">
         <v>47020</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I7" s="13">
         <v>15000</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2816,7 +2868,7 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
@@ -2831,10 +2883,10 @@
     </row>
     <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -2846,7 +2898,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -2855,94 +2907,94 @@
         <v>3</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>144</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" s="21">
         <v>45754.847453703704</v>
       </c>
       <c r="I4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>145</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5" s="21">
         <v>45820.646064814813</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>146</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" s="21">
         <v>45879.521412037036</v>
       </c>
       <c r="I6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2956,6 +3008,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2964,7 +3024,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3185,15 +3245,19 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3201,7 +3265,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3219,16 +3283,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EBD940-C5DF-45D0-9A59-58469A793DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF108AA-5255-4477-9D53-8E59B7DD1926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="5" activeTab="6" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="155">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Precio_Total</t>
   </si>
   <si>
-    <t>Tipo_Pago</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gorra Morada </t>
   </si>
   <si>
@@ -441,9 +438,6 @@
     <t xml:space="preserve">ID_usuario </t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha_Hora </t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
@@ -493,6 +487,15 @@
   </si>
   <si>
     <t xml:space="preserve">Hora </t>
+  </si>
+  <si>
+    <t>PrecioUnitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrecioUnitario </t>
+  </si>
+  <si>
+    <t>Hora</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -721,24 +724,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,11 +758,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
   <dimension ref="B2:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,17 +1116,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="O2" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
@@ -1126,7 +1135,7 @@
       <c r="T2" s="28"/>
       <c r="U2" s="29"/>
       <c r="W2" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X2" s="29"/>
     </row>
@@ -1138,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -1150,17 +1159,17 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="22"/>
       <c r="O3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P3" s="23" t="s">
         <v>13</v>
@@ -1178,18 +1187,18 @@
         <v>17</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
@@ -1197,7 +1206,7 @@
       <c r="D4" s="21">
         <v>45754.847453703704</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="25">
         <v>0.84722222222222221</v>
       </c>
       <c r="F4" s="13" t="s">
@@ -1207,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>1</v>
@@ -1216,13 +1225,13 @@
         <v>9</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>18</v>
@@ -1246,12 +1255,12 @@
         <v>1</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>61</v>
@@ -1259,7 +1268,7 @@
       <c r="D5" s="21">
         <v>45820.646064814813</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="25">
         <v>0.64583333333333337</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1269,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>60</v>
@@ -1284,7 +1293,7 @@
         <v>18000</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>19</v>
@@ -1308,12 +1317,12 @@
         <v>2</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>61</v>
@@ -1321,7 +1330,7 @@
       <c r="D6" s="21">
         <v>45879.521412037036</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="25">
         <v>0.52083333333333337</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -1331,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>61</v>
@@ -1346,7 +1355,7 @@
         <v>22000</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>20</v>
@@ -1370,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1397,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,18 +1423,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="25" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1435,7 +1444,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>43</v>
@@ -1444,7 +1453,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>41</v>
@@ -1604,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C501386-919F-43F1-83F0-4F38E7F1D1A2}">
   <dimension ref="B3:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1632,15 +1641,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="H3" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -1649,7 +1658,7 @@
       <c r="M3" s="28"/>
       <c r="N3" s="29"/>
       <c r="P3" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q3" s="29"/>
     </row>
@@ -1661,16 +1670,16 @@
         <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
@@ -1688,13 +1697,13 @@
         <v>17</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -1711,10 +1720,10 @@
         <v>18000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
@@ -1738,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -1749,16 +1758,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="20">
         <v>50000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
@@ -1782,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -1790,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E8590F-DA86-47A1-B849-50E6B16DDC38}">
   <dimension ref="B2:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -1843,16 +1852,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="I2" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -1860,7 +1869,7 @@
       <c r="M2" s="28"/>
       <c r="N2" s="29"/>
       <c r="P2" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
@@ -1869,11 +1878,11 @@
       <c r="U2" s="28"/>
       <c r="V2" s="29"/>
       <c r="X2" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y2" s="29"/>
       <c r="AA2" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB2" s="29"/>
     </row>
@@ -1882,31 +1891,31 @@
         <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>41</v>
@@ -1933,24 +1942,24 @@
         <v>17</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="X3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="AA3" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
@@ -1959,13 +1968,13 @@
         <v>78000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>34</v>
@@ -1974,7 +1983,7 @@
         <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
@@ -1986,7 +1995,7 @@
         <v>78000</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>18</v>
@@ -2010,42 +2019,42 @@
         <v>1</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2">
         <v>50000</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
@@ -2057,7 +2066,7 @@
         <v>50000</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>19</v>
@@ -2081,42 +2090,42 @@
         <v>2</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="13">
         <v>8000</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="L6" s="7">
         <v>2</v>
@@ -2128,7 +2137,7 @@
         <v>8000</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>20</v>
@@ -2152,42 +2161,42 @@
         <v>3</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="13">
         <v>15000</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
@@ -2199,13 +2208,13 @@
         <v>15000</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="S7" s="7">
         <v>10098977625</v>
@@ -2214,16 +2223,16 @@
         <v>3044495505</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V7" s="11">
         <v>3</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2250,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
   <dimension ref="B2:W16"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,6 +2272,7 @@
     <col min="7" max="7" width="30.140625" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" customWidth="1"/>
     <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" customWidth="1"/>
     <col min="15" max="15" width="30.28515625" customWidth="1"/>
@@ -2279,13 +2289,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -2293,7 +2303,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="29"/>
       <c r="M2" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
@@ -2302,40 +2312,40 @@
       <c r="R2" s="28"/>
       <c r="S2" s="29"/>
       <c r="V2" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W2" s="29"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>13</v>
@@ -2353,24 +2363,24 @@
         <v>17</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>34</v>
@@ -2379,7 +2389,7 @@
         <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2391,7 +2401,7 @@
         <v>78000</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>18</v>
@@ -2409,33 +2419,33 @@
         <v>123456789</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -2447,7 +2457,7 @@
         <v>50000</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>19</v>
@@ -2465,33 +2475,33 @@
         <v>24</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
@@ -2503,7 +2513,7 @@
         <v>8000</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>20</v>
@@ -2521,33 +2531,33 @@
         <v>25</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -2559,13 +2569,13 @@
         <v>15000</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="P7" s="7">
         <v>10098977625</v>
@@ -2574,10 +2584,10 @@
         <v>3044495505</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2603,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73743B71-12CC-4A65-A712-8C586D2A7F83}">
   <dimension ref="B2:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2630,78 +2640,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="G2" s="25" t="s">
+      <c r="B2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="G2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
       <c r="O2" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P2" s="29"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="14">
         <v>45801</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>47</v>
@@ -2710,127 +2720,127 @@
         <v>78000</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O4" s="4">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="14">
         <v>46227</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2">
         <v>50000</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O5" s="4">
         <v>2</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="14">
         <v>46623</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="13">
         <v>8000</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O6" s="4">
         <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="14">
         <v>47020</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="13">
         <v>15000</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2846,10 +2856,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ADBC9-506E-40DF-8C0D-E4AEB9E67330}">
-  <dimension ref="B2:K6"/>
+  <dimension ref="B2:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2863,30 +2873,32 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="F2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="F2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -2898,30 +2910,33 @@
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>138</v>
-      </c>
       <c r="C4" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>60</v>
@@ -2929,28 +2944,31 @@
       <c r="H4" s="21">
         <v>45754.847453703704</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="25">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>61</v>
@@ -2958,28 +2976,31 @@
       <c r="H5" s="21">
         <v>45820.646064814813</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="25">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>61</v>
@@ -2987,20 +3008,23 @@
       <c r="H6" s="21">
         <v>45879.521412037036</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="25">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>118</v>
+      <c r="L6" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F2:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3008,20 +3032,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3246,6 +3270,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3253,14 +3285,6 @@
     <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
